--- a/100-units/100-output_df_validation.xlsx
+++ b/100-units/100-output_df_validation.xlsx
@@ -464,13 +464,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001778471283614635</v>
+        <v>-0.001037003239616752</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.162960106641889e-06</v>
+        <v>1.075375718975638e-06</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>0.011843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0109609542414546</v>
+        <v>0.01431385986506939</v>
       </c>
       <c r="D3" t="n">
         <v>0.007920270198864755</v>
       </c>
       <c r="E3" t="n">
-        <v>9.245759446860532e-06</v>
+        <v>4.087798881979869e-05</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         <v>0.023687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06025459244847298</v>
+        <v>0.06014162302017212</v>
       </c>
       <c r="D4" t="n">
         <v>0.0541099401604743</v>
       </c>
       <c r="E4" t="n">
-        <v>3.775675174040734e-05</v>
+        <v>3.638119811997243e-05</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         <v>0.03553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131036177277565</v>
+        <v>0.1349842697381973</v>
       </c>
       <c r="D5" t="n">
         <v>0.1273505335547468</v>
       </c>
       <c r="E5" t="n">
-        <v>1.358396965154928e-05</v>
+        <v>5.827392811852193e-05</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>0.047374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1871787458658218</v>
+        <v>0.1929115802049637</v>
       </c>
       <c r="D6" t="n">
         <v>0.1919797352175346</v>
       </c>
       <c r="E6" t="n">
-        <v>2.304949875525919e-05</v>
+        <v>8.683350805967357e-07</v>
       </c>
     </row>
     <row r="7">
@@ -549,13 +549,13 @@
         <v>0.059217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2139477878808975</v>
+        <v>0.2188199907541275</v>
       </c>
       <c r="D7" t="n">
         <v>0.2179247732510162</v>
       </c>
       <c r="E7" t="n">
-        <v>1.581641263413797e-05</v>
+        <v>8.014143778768418e-07</v>
       </c>
     </row>
     <row r="8">
@@ -566,13 +566,13 @@
         <v>0.07126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2179622799158096</v>
+        <v>0.2220908999443054</v>
       </c>
       <c r="D8" t="n">
         <v>0.219878394894207</v>
       </c>
       <c r="E8" t="n">
-        <v>3.671496610438714e-06</v>
+        <v>4.895178596711051e-06</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +583,13 @@
         <v>0.083303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2033257633447647</v>
+        <v>0.207767978310585</v>
       </c>
       <c r="D9" t="n">
         <v>0.2034614812527241</v>
       </c>
       <c r="E9" t="n">
-        <v>1.841935054087122e-08</v>
+        <v>1.854591690936485e-05</v>
       </c>
     </row>
     <row r="10">
@@ -600,13 +600,13 @@
         <v>0.095346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1801954656839371</v>
+        <v>0.1827064603567123</v>
       </c>
       <c r="D10" t="n">
         <v>0.1805149753132994</v>
       </c>
       <c r="E10" t="n">
-        <v>1.020864032552571e-07</v>
+        <v>4.802606695502584e-06</v>
       </c>
     </row>
     <row r="11">
@@ -617,13 +617,13 @@
         <v>0.10739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1569082885980606</v>
+        <v>0.1582991629838943</v>
       </c>
       <c r="D11" t="n">
         <v>0.1570977750588763</v>
       </c>
       <c r="E11" t="n">
-        <v>3.590511883245219e-08</v>
+        <v>1.443332946379201e-06</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         <v>0.11943</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1376161724328995</v>
+        <v>0.1364459842443466</v>
       </c>
       <c r="D12" t="n">
         <v>0.1360699860823273</v>
       </c>
       <c r="E12" t="n">
-        <v>2.390692230695739e-06</v>
+        <v>1.41374617841915e-07</v>
       </c>
     </row>
     <row r="13">
@@ -651,13 +651,13 @@
         <v>0.13167</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1176363378763199</v>
+        <v>0.1188075244426727</v>
       </c>
       <c r="D13" t="n">
         <v>0.117543720378003</v>
       </c>
       <c r="E13" t="n">
-        <v>8.578000994479293e-09</v>
+        <v>1.597200713875744e-06</v>
       </c>
     </row>
     <row r="14">
@@ -668,13 +668,13 @@
         <v>0.1439</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1016170531511307</v>
+        <v>0.1044879704713821</v>
       </c>
       <c r="D14" t="n">
         <v>0.101980439899076</v>
       </c>
       <c r="E14" t="n">
-        <v>1.320499285822784e-07</v>
+        <v>6.287709571049962e-06</v>
       </c>
     </row>
     <row r="15">
@@ -685,13 +685,13 @@
         <v>0.15613</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08936311304569244</v>
+        <v>0.09258094429969788</v>
       </c>
       <c r="D15" t="n">
         <v>0.08919154132310828</v>
       </c>
       <c r="E15" t="n">
-        <v>2.943685599049885e-08</v>
+        <v>1.148805253771444e-05</v>
       </c>
     </row>
     <row r="16">
@@ -702,13 +702,13 @@
         <v>0.16836</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07961846888065338</v>
+        <v>0.08141891658306122</v>
       </c>
       <c r="D16" t="n">
         <v>0.07866825510110681</v>
       </c>
       <c r="E16" t="n">
-        <v>9.029062268401803e-07</v>
+        <v>7.566138588307622e-06</v>
       </c>
     </row>
     <row r="17">
@@ -719,13 +719,13 @@
         <v>0.1806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07136459648609161</v>
+        <v>0.07176682353019714</v>
       </c>
       <c r="D17" t="n">
         <v>0.0697151321689032</v>
       </c>
       <c r="E17" t="n">
-        <v>2.720732533677853e-06</v>
+        <v>4.209437442008211e-06</v>
       </c>
     </row>
     <row r="18">
@@ -736,13 +736,13 @@
         <v>0.19301</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06390906870365143</v>
+        <v>0.06501033902168274</v>
       </c>
       <c r="D18" t="n">
         <v>0.06229572164538796</v>
       </c>
       <c r="E18" t="n">
-        <v>2.602888730407398e-06</v>
+        <v>7.369147499681569e-06</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>0.20542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0573812909424305</v>
+        <v>0.05893507599830627</v>
       </c>
       <c r="D19" t="n">
         <v>0.05608229531723823</v>
       </c>
       <c r="E19" t="n">
-        <v>1.687389634268639e-06</v>
+        <v>8.138357614275038e-06</v>
       </c>
     </row>
     <row r="20">
@@ -770,13 +770,13 @@
         <v>0.21783</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05194653943181038</v>
+        <v>0.05166862905025482</v>
       </c>
       <c r="D20" t="n">
         <v>0.0509331388322084</v>
       </c>
       <c r="E20" t="n">
-        <v>1.026980775273646e-06</v>
+        <v>5.409458608419698e-07</v>
       </c>
     </row>
     <row r="21">
@@ -787,13 +787,13 @@
         <v>0.23025</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04732029512524605</v>
+        <v>0.04549213498830795</v>
       </c>
       <c r="D21" t="n">
         <v>0.04659979348688512</v>
       </c>
       <c r="E21" t="n">
-        <v>5.191226108807771e-07</v>
+        <v>1.226907349470231e-06</v>
       </c>
     </row>
     <row r="22">
@@ -804,13 +804,13 @@
         <v>0.24266</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04362236335873604</v>
+        <v>0.04313650727272034</v>
       </c>
       <c r="D22" t="n">
         <v>0.04284243071529115</v>
       </c>
       <c r="E22" t="n">
-        <v>6.082949283109365e-07</v>
+        <v>8.64810216294039e-08</v>
       </c>
     </row>
     <row r="23">
@@ -821,13 +821,13 @@
         <v>0.25524</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04002620652318001</v>
+        <v>0.04030422121286392</v>
       </c>
       <c r="D23" t="n">
         <v>0.03955045321650252</v>
       </c>
       <c r="E23" t="n">
-        <v>2.263412088145671e-07</v>
+        <v>5.681661923386878e-07</v>
       </c>
     </row>
     <row r="24">
@@ -838,13 +838,13 @@
         <v>0.26782</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03722447529435158</v>
+        <v>0.03792376816272736</v>
       </c>
       <c r="D24" t="n">
         <v>0.03670255228944378</v>
       </c>
       <c r="E24" t="n">
-        <v>2.724036230519842e-07</v>
+        <v>1.491368209159765e-06</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +855,13 @@
         <v>0.2804</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03539181128144264</v>
+        <v>0.03521957993507385</v>
       </c>
       <c r="D25" t="n">
         <v>0.03423437632453608</v>
       </c>
       <c r="E25" t="n">
-        <v>1.33965567946929e-06</v>
+        <v>9.706261542166582e-07</v>
       </c>
     </row>
     <row r="26">
@@ -872,13 +872,13 @@
         <v>0.29298</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03247440233826637</v>
+        <v>0.0321979820728302</v>
       </c>
       <c r="D26" t="n">
         <v>0.03206770187517696</v>
       </c>
       <c r="E26" t="n">
-        <v>1.654052666771405e-07</v>
+        <v>1.697292990056663e-08</v>
       </c>
     </row>
     <row r="27">
@@ -889,13 +889,13 @@
         <v>0.30556</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02933924272656441</v>
+        <v>0.02960731647908688</v>
       </c>
       <c r="D27" t="n">
         <v>0.03013092342024505</v>
       </c>
       <c r="E27" t="n">
-        <v>6.267583207466651e-07</v>
+        <v>2.741642288290206e-07</v>
       </c>
     </row>
     <row r="28">
@@ -906,13 +906,13 @@
         <v>0.3183</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02970096841454506</v>
+        <v>0.03038848005235195</v>
       </c>
       <c r="D28" t="n">
         <v>0.02837866976566381</v>
       </c>
       <c r="E28" t="n">
-        <v>1.74847371683318e-06</v>
+        <v>4.039337388477474e-06</v>
       </c>
     </row>
     <row r="29">
@@ -923,13 +923,13 @@
         <v>0.33104</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02784929051995277</v>
+        <v>0.02903618477284908</v>
       </c>
       <c r="D29" t="n">
         <v>0.02681102379085171</v>
       </c>
       <c r="E29" t="n">
-        <v>1.077997800758222e-06</v>
+        <v>4.951341395803511e-06</v>
       </c>
     </row>
     <row r="30">
@@ -940,13 +940,13 @@
         <v>0.34377</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0254049152135849</v>
+        <v>0.02768045477569103</v>
       </c>
       <c r="D30" t="n">
         <v>0.02540171375281381</v>
       </c>
       <c r="E30" t="n">
-        <v>1.024935106882329e-11</v>
+        <v>5.192660649343527e-06</v>
       </c>
     </row>
     <row r="31">
@@ -957,13 +957,13 @@
         <v>0.35651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02684840932488441</v>
+        <v>0.02492819540202618</v>
       </c>
       <c r="D31" t="n">
         <v>0.0241221405575778</v>
       </c>
       <c r="E31" t="n">
-        <v>7.432541391591527e-06</v>
+        <v>6.497244122586961e-07</v>
       </c>
     </row>
     <row r="32">
@@ -974,13 +974,13 @@
         <v>0.36925</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02194004133343697</v>
+        <v>0.02437966875731945</v>
       </c>
       <c r="D32" t="n">
         <v>0.02294778591388828</v>
       </c>
       <c r="E32" t="n">
-        <v>1.015549139428994e-06</v>
+        <v>2.050288477312535e-06</v>
       </c>
     </row>
     <row r="33">
@@ -991,13 +991,13 @@
         <v>0.38213</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02261317148804665</v>
+        <v>0.02321255020797253</v>
       </c>
       <c r="D33" t="n">
         <v>0.02184881019161491</v>
       </c>
       <c r="E33" t="n">
-        <v>5.842481914828026e-07</v>
+        <v>1.859786832215069e-06</v>
       </c>
     </row>
     <row r="34">
@@ -1008,13 +1008,13 @@
         <v>0.39501</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02023433521389961</v>
+        <v>0.02248975448310375</v>
       </c>
       <c r="D34" t="n">
         <v>0.02083131086702007</v>
       </c>
       <c r="E34" t="n">
-        <v>3.563799304185957e-07</v>
+        <v>2.750435227728723e-06</v>
       </c>
     </row>
     <row r="35">
@@ -1025,13 +1025,13 @@
         <v>0.40789</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01821725443005562</v>
+        <v>0.02185062132775784</v>
       </c>
       <c r="D35" t="n">
         <v>0.01988607688731721</v>
       </c>
       <c r="E35" t="n">
-        <v>2.784968393860612e-06</v>
+        <v>3.859434858466176e-06</v>
       </c>
     </row>
     <row r="36">
@@ -1042,13 +1042,13 @@
         <v>0.42077</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02178420498967171</v>
+        <v>0.02171081863343716</v>
       </c>
       <c r="D36" t="n">
         <v>0.01900127828316104</v>
       </c>
       <c r="E36" t="n">
-        <v>7.744681053810311e-06</v>
+        <v>7.341608909774423e-06</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         <v>0.43365</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01962830498814583</v>
+        <v>0.02131845615804195</v>
       </c>
       <c r="D37" t="n">
         <v>0.01816597599347708</v>
       </c>
       <c r="E37" t="n">
-        <v>2.138406088648914e-06</v>
+        <v>9.93813118797498e-06</v>
       </c>
     </row>
     <row r="38">
@@ -1076,13 +1076,13 @@
         <v>0.4466600000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01933946087956429</v>
+        <v>0.02054107747972012</v>
       </c>
       <c r="D38" t="n">
         <v>0.01735611453034558</v>
       </c>
       <c r="E38" t="n">
-        <v>3.933662740959171e-06</v>
+        <v>1.014398898888855e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1093,13 +1093,13 @@
         <v>0.45967</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01841770485043526</v>
+        <v>0.01983077637851238</v>
       </c>
       <c r="D39" t="n">
         <v>0.0165746835165611</v>
       </c>
       <c r="E39" t="n">
-        <v>3.39672763711528e-06</v>
+        <v>1.06021407256501e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1110,13 +1110,13 @@
         <v>0.47268</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01868434622883797</v>
+        <v>0.01891510747373104</v>
       </c>
       <c r="D40" t="n">
         <v>0.01582032234155875</v>
       </c>
       <c r="E40" t="n">
-        <v>8.202632826905949e-06</v>
+        <v>9.577695014314656e-06</v>
       </c>
     </row>
     <row r="41">
@@ -1127,13 +1127,13 @@
         <v>0.48569</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01792474463582039</v>
+        <v>0.01794330589473248</v>
       </c>
       <c r="D41" t="n">
         <v>0.01509079743352646</v>
       </c>
       <c r="E41" t="n">
-        <v>8.031256745389582e-06</v>
+        <v>8.136804521251905e-06</v>
       </c>
     </row>
     <row r="42">
@@ -1144,13 +1144,13 @@
         <v>0.4987</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01722590997815132</v>
+        <v>0.0173173975199461</v>
       </c>
       <c r="D42" t="n">
         <v>0.01438353870897308</v>
       </c>
       <c r="E42" t="n">
-        <v>8.07907443184993e-06</v>
+        <v>8.607527522724016e-06</v>
       </c>
     </row>
     <row r="43">
@@ -1161,13 +1161,13 @@
         <v>0.51183</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01611362770199776</v>
+        <v>0.01665368489921093</v>
       </c>
       <c r="D43" t="n">
         <v>0.01368783874728593</v>
       </c>
       <c r="E43" t="n">
-        <v>5.884452052801897e-06</v>
+        <v>8.796243396888329e-06</v>
       </c>
     </row>
     <row r="44">
@@ -1178,13 +1178,13 @@
         <v>0.52496</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01487876754254103</v>
+        <v>0.0160249900072813</v>
       </c>
       <c r="D44" t="n">
         <v>0.01300008975424694</v>
       </c>
       <c r="E44" t="n">
-        <v>3.529430232229561e-06</v>
+        <v>9.150021540807353e-06</v>
       </c>
     </row>
     <row r="45">
@@ -1195,13 +1195,13 @@
         <v>0.53809</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01445870380848646</v>
+        <v>0.01518667303025723</v>
       </c>
       <c r="D45" t="n">
         <v>0.01231959562343109</v>
       </c>
       <c r="E45" t="n">
-        <v>4.575783827370884e-06</v>
+        <v>8.220132856732871e-06</v>
       </c>
     </row>
     <row r="46">
@@ -1212,13 +1212,13 @@
         <v>0.5512100000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01438533049076796</v>
+        <v>0.01410538516938686</v>
       </c>
       <c r="D46" t="n">
         <v>0.01164579123485829</v>
       </c>
       <c r="E46" t="n">
-        <v>7.505075334670086e-06</v>
+        <v>6.04960232276975e-06</v>
       </c>
     </row>
     <row r="47">
@@ -1229,13 +1229,13 @@
         <v>0.56434</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01324545126408339</v>
+        <v>0.01301472447812557</v>
       </c>
       <c r="D47" t="n">
         <v>0.01098044079001627</v>
       </c>
       <c r="E47" t="n">
-        <v>5.130272447633737e-06</v>
+        <v>4.138310123707583e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1246,13 +1246,13 @@
         <v>0.57757</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01247044187039137</v>
+        <v>0.01198269985616207</v>
       </c>
       <c r="D48" t="n">
         <v>0.01032462707730982</v>
       </c>
       <c r="E48" t="n">
-        <v>4.604521126207613e-06</v>
+        <v>2.749205339970828e-06</v>
       </c>
     </row>
     <row r="49">
@@ -1263,13 +1263,13 @@
         <v>0.5908</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01177712064236403</v>
+        <v>0.01096953265368938</v>
       </c>
       <c r="D49" t="n">
         <v>0.009690952501335308</v>
       </c>
       <c r="E49" t="n">
-        <v>4.352097512643215e-06</v>
+        <v>1.634767205993775e-06</v>
       </c>
     </row>
     <row r="50">
@@ -1280,13 +1280,13 @@
         <v>0.6040300000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01181789021939039</v>
+        <v>0.01012169383466244</v>
       </c>
       <c r="D50" t="n">
         <v>0.00908395359296154</v>
       </c>
       <c r="E50" t="n">
-        <v>7.474409477329175e-06</v>
+        <v>1.076904809245438e-06</v>
       </c>
     </row>
     <row r="51">
@@ -1297,13 +1297,13 @@
         <v>0.61726</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01135571580380201</v>
+        <v>0.009507616981863976</v>
       </c>
       <c r="D51" t="n">
         <v>0.00850568542223273</v>
       </c>
       <c r="E51" t="n">
-        <v>8.122673175867954e-06</v>
+        <v>1.003866850185099e-06</v>
       </c>
     </row>
     <row r="52">
@@ -1314,13 +1314,13 @@
         <v>0.63049</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01091625075787306</v>
+        <v>0.008924191817641258</v>
       </c>
       <c r="D52" t="n">
         <v>0.007957887309911326</v>
       </c>
       <c r="E52" t="n">
-        <v>8.751914290236029e-06</v>
+        <v>9.337444016591865e-07</v>
       </c>
     </row>
     <row r="53">
@@ -1331,13 +1331,13 @@
         <v>0.6438</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01034756284207106</v>
+        <v>0.008463537320494652</v>
       </c>
       <c r="D53" t="n">
         <v>0.007427425902215232</v>
       </c>
       <c r="E53" t="n">
-        <v>8.527199747510539e-06</v>
+        <v>1.073526871088991e-06</v>
       </c>
     </row>
     <row r="54">
@@ -1348,13 +1348,13 @@
         <v>0.6571199999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.009835499338805676</v>
+        <v>0.008062040433287621</v>
       </c>
       <c r="D54" t="n">
         <v>0.006917705736645741</v>
       </c>
       <c r="E54" t="n">
-        <v>8.513519504805449e-06</v>
+        <v>1.309501897938463e-06</v>
       </c>
     </row>
     <row r="55">
@@ -1365,13 +1365,13 @@
         <v>0.6704399999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.009347754530608654</v>
+        <v>0.007669640704989433</v>
       </c>
       <c r="D55" t="n">
         <v>0.006425734893484416</v>
       </c>
       <c r="E55" t="n">
-        <v>8.538198759739667e-06</v>
+        <v>1.547301667895957e-06</v>
       </c>
     </row>
     <row r="56">
@@ -1382,13 +1382,13 @@
         <v>0.68375</v>
       </c>
       <c r="C56" t="n">
-        <v>0.008835810236632824</v>
+        <v>0.007176978513598442</v>
       </c>
       <c r="D56" t="n">
         <v>0.005949240767824191</v>
       </c>
       <c r="E56" t="n">
-        <v>8.332283298258153e-06</v>
+        <v>1.507339972398839e-06</v>
       </c>
     </row>
     <row r="57">
@@ -1399,13 +1399,13 @@
         <v>0.69707</v>
       </c>
       <c r="C57" t="n">
-        <v>0.008398669771850109</v>
+        <v>0.006680091843008995</v>
       </c>
       <c r="D57" t="n">
         <v>0.00548765828493849</v>
       </c>
       <c r="E57" t="n">
-        <v>8.473987876931398e-06</v>
+        <v>1.421897790412685e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1416,13 +1416,13 @@
         <v>0.7104600000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.007948714308440685</v>
+        <v>0.006225584074854851</v>
       </c>
       <c r="D58" t="n">
         <v>0.005039635759694479</v>
       </c>
       <c r="E58" t="n">
-        <v>8.462738002775334e-06</v>
+        <v>1.406473406231725e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1433,13 +1433,13 @@
         <v>0.72385</v>
       </c>
       <c r="C59" t="n">
-        <v>0.007481175474822521</v>
+        <v>0.005356935784220695</v>
       </c>
       <c r="D59" t="n">
         <v>0.004609849108381418</v>
       </c>
       <c r="E59" t="n">
-        <v>8.244515102619871e-06</v>
+        <v>5.581385012165823e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1450,13 +1450,13 @@
         <v>0.7372300000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.007043140940368176</v>
+        <v>0.005136070773005486</v>
       </c>
       <c r="D60" t="n">
         <v>0.004199077826212207</v>
       </c>
       <c r="E60" t="n">
-        <v>8.088694997302546e-06</v>
+        <v>8.779557823403517e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1467,13 +1467,13 @@
         <v>0.75062</v>
       </c>
       <c r="C61" t="n">
-        <v>0.006406503729522228</v>
+        <v>0.004972388967871666</v>
       </c>
       <c r="D61" t="n">
         <v>0.003807020023255061</v>
       </c>
       <c r="E61" t="n">
-        <v>6.757315539148488e-06</v>
+        <v>1.35808477707682e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1484,13 +1484,13 @@
         <v>0.7640100000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.005837458185851574</v>
+        <v>0.004812275990843773</v>
       </c>
       <c r="D62" t="n">
         <v>0.003433977506835449</v>
       </c>
       <c r="E62" t="n">
-        <v>5.776719374403813e-06</v>
+        <v>1.899706711019644e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1501,13 +1501,13 @@
         <v>0.77746</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005329805426299572</v>
+        <v>0.004649436101317406</v>
       </c>
       <c r="D63" t="n">
         <v>0.003075117239802261</v>
       </c>
       <c r="E63" t="n">
-        <v>5.083618818330533e-06</v>
+        <v>2.478479877722341e-06</v>
       </c>
     </row>
   </sheetData>
